--- a/scripts/prediction_files/config_predictions_tools.xlsx
+++ b/scripts/prediction_files/config_predictions_tools.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProtoQSAR\COMPIS\ONTOX_2022\ONTOX_2022_T3.1\MANUSCRIPT\first_final_version\Processing_datasets\prediction_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IRB\scripts\prediction_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67779F91-4A25-486D-AECE-62B0C6749456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BE7E2-C92B-43EB-84E6-1581BCF107CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-60" windowWidth="29016" windowHeight="15816" firstSheet="1" activeTab="2" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
   </bookViews>
   <sheets>
     <sheet name="tools_configuration" sheetId="2" r:id="rId1"/>
@@ -21,17 +21,28 @@
     <sheet name="properties_by_tools_units" sheetId="10" r:id="rId6"/>
     <sheet name="properties_by_tools_all" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="201">
   <si>
     <t>CAS</t>
   </si>
@@ -663,6 +674,9 @@
   </si>
   <si>
     <t>ratioF10</t>
+  </si>
+  <si>
+    <t>\t</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1091,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1287,6 +1301,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,9 +1359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1382,7 +1399,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1488,7 +1505,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1630,7 +1647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1641,98 +1658,98 @@
   <dimension ref="A1:AZ28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="24" style="20"/>
-    <col min="6" max="8" width="11.88671875" style="20" customWidth="1"/>
-    <col min="9" max="10" width="32.44140625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="20" customWidth="1"/>
+    <col min="6" max="8" width="11.85546875" style="20" customWidth="1"/>
+    <col min="9" max="10" width="32.42578125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="20" customWidth="1"/>
     <col min="13" max="26" width="11" style="20" customWidth="1"/>
-    <col min="27" max="27" width="18.5546875" style="20" customWidth="1"/>
-    <col min="28" max="28" width="20.88671875" style="20" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" style="20" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" style="20" customWidth="1"/>
     <col min="29" max="34" width="11" style="20" customWidth="1"/>
     <col min="35" max="35" width="24" style="20"/>
-    <col min="36" max="36" width="14.88671875" style="20" customWidth="1"/>
-    <col min="37" max="37" width="6.109375" style="20" customWidth="1"/>
-    <col min="38" max="47" width="10.5546875" style="20" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" style="20" customWidth="1"/>
+    <col min="37" max="37" width="6.140625" style="20" customWidth="1"/>
+    <col min="38" max="47" width="10.5703125" style="20" customWidth="1"/>
     <col min="48" max="16384" width="24" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:52" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="79" t="s">
+      <c r="O1" s="81"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="80"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="79" t="s">
+      <c r="R1" s="81"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="80"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="79" t="s">
+      <c r="U1" s="81"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="79" t="s">
+      <c r="X1" s="81"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="79" t="s">
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="79" t="s">
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="81"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="82"/>
+      <c r="AL1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="84" t="s">
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="84" t="s">
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="84" t="s">
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="84" t="s">
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="85"/>
+      <c r="AU1" s="86"/>
       <c r="AY1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="AZ1" s="22"/>
     </row>
-    <row r="2" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1870,7 +1887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +1944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
@@ -1995,7 +2012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2046,7 +2063,7 @@
       <c r="AH5" s="12"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2093,7 +2110,7 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>13</v>
       </c>
@@ -2153,7 +2170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -2200,7 +2217,7 @@
       <c r="AH8" s="12"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -2247,7 +2264,7 @@
       <c r="AH9" s="12"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
@@ -2332,7 +2349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2343,9 +2360,15 @@
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -2381,7 +2404,7 @@
       <c r="AH11" s="12"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -2430,7 +2453,7 @@
       <c r="AH12" s="12"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2477,7 +2500,7 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -2518,7 +2541,7 @@
       <c r="AH14" s="12"/>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2559,7 +2582,7 @@
       <c r="AH15" s="12"/>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -2600,7 +2623,7 @@
       <c r="AH16" s="12"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>31</v>
       </c>
@@ -2652,7 +2675,7 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
     </row>
-    <row r="18" spans="1:36" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>87</v>
       </c>
@@ -2757,7 +2780,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>185</v>
       </c>
@@ -2771,7 +2794,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>186</v>
       </c>
@@ -2785,7 +2808,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>187</v>
       </c>
@@ -2800,7 +2823,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>188</v>
       </c>
@@ -2814,7 +2837,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>190</v>
       </c>
@@ -2829,7 +2852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>189</v>
       </c>
@@ -2843,7 +2866,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>191</v>
       </c>
@@ -2857,7 +2880,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>192</v>
       </c>
@@ -2871,7 +2894,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>193</v>
       </c>
@@ -2885,7 +2908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>194</v>
       </c>
@@ -2925,12 +2948,12 @@
       <selection activeCell="B15" sqref="B15:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>181</v>
       </c>
@@ -2938,7 +2961,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>182</v>
       </c>
@@ -2946,7 +2969,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>183</v>
       </c>
@@ -2954,22 +2977,22 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>CONCATENATE(B15,";",B16,";",B17,";",B18,";",B19,";",B20)</f>
         <v>iLOGP;XLOGP3;WLOGP;MLOGP;Silicos-IT Log P;Consensus Log P</v>
@@ -2988,29 +3011,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0F83C6-9DA1-4D28-BE0D-BA520F4CC89D}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="2" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -3069,8 +3092,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -3094,8 +3117,8 @@
       <c r="R3" s="48"/>
       <c r="S3" s="57"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -3117,8 +3140,8 @@
       <c r="R4" s="44"/>
       <c r="S4" s="58"/>
     </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -3140,8 +3163,8 @@
       <c r="R5" s="44"/>
       <c r="S5" s="58"/>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="87"/>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -3163,8 +3186,8 @@
       <c r="R6" s="44"/>
       <c r="S6" s="58"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -3186,8 +3209,8 @@
       <c r="R7" s="44"/>
       <c r="S7" s="58"/>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -3209,8 +3232,8 @@
       <c r="R8" s="44"/>
       <c r="S8" s="58"/>
     </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="87"/>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -3232,8 +3255,8 @@
       <c r="R9" s="44"/>
       <c r="S9" s="58"/>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -3255,8 +3278,8 @@
       <c r="R10" s="69"/>
       <c r="S10" s="71"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="90" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="65" t="s">
@@ -3280,8 +3303,8 @@
       <c r="R11" s="67"/>
       <c r="S11" s="67"/>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="87"/>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="88"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -3303,8 +3326,8 @@
       <c r="R12" s="60"/>
       <c r="S12" s="60"/>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="87"/>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="88"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -3328,8 +3351,8 @@
       </c>
       <c r="S13" s="44"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -3351,8 +3374,8 @@
       <c r="R14" s="60"/>
       <c r="S14" s="60"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="88"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -3374,8 +3397,8 @@
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3420,8 @@
       <c r="R16" s="60"/>
       <c r="S16" s="60"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -3420,8 +3443,8 @@
       <c r="R17" s="60"/>
       <c r="S17" s="60"/>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -3443,7 +3466,7 @@
       <c r="R18" s="60"/>
       <c r="S18" s="60"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="62"/>
     </row>
   </sheetData>
@@ -3461,28 +3484,28 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="2" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" customWidth="1"/>
-    <col min="25" max="25" width="17.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:27" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:27" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -3565,8 +3588,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -3598,8 +3621,8 @@
       <c r="Z3" s="48"/>
       <c r="AA3" s="57"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -3611,9 +3634,7 @@
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="53" t="s">
-        <v>43</v>
-      </c>
+      <c r="K4" s="53"/>
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
@@ -3631,8 +3652,8 @@
       <c r="Z4" s="44"/>
       <c r="AA4" s="58"/>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -3662,8 +3683,8 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="58"/>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="87"/>
+    <row r="6" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -3693,8 +3714,8 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="58"/>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -3724,8 +3745,8 @@
       <c r="Z7" s="44"/>
       <c r="AA7" s="58"/>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
+    <row r="8" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +3776,8 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="58"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="87"/>
+    <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -3786,8 +3807,8 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="58"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -3798,8 +3819,12 @@
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="45"/>
+      <c r="J10" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>43</v>
+      </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
@@ -3817,8 +3842,8 @@
       <c r="Z10" s="69"/>
       <c r="AA10" s="71"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -3850,8 +3875,8 @@
       <c r="Z11" s="76"/>
       <c r="AA11" s="77"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="87"/>
+    <row r="12" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="88"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -3881,8 +3906,8 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="12"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="88"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -3901,9 +3926,7 @@
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
-      <c r="R13" s="61" t="s">
-        <v>49</v>
-      </c>
+      <c r="R13" s="61"/>
       <c r="S13" s="44"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
@@ -3914,8 +3937,8 @@
       <c r="Z13" s="44"/>
       <c r="AA13" s="58"/>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -3945,8 +3968,8 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="12"/>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="88"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -3976,8 +3999,8 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -4007,8 +4030,8 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -4038,8 +4061,8 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -4082,31 +4105,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41DF9A8-662C-4CBC-A161-D0AE9B40A0E2}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="2" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" customWidth="1"/>
-    <col min="19" max="19" width="24.44140625" customWidth="1"/>
-    <col min="23" max="23" width="31.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" customWidth="1"/>
+    <col min="23" max="23" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4212,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -4226,8 +4249,8 @@
       <c r="Z3" s="48"/>
       <c r="AA3" s="57"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -4261,8 +4284,8 @@
       <c r="Z4" s="44"/>
       <c r="AA4" s="58"/>
     </row>
-    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -4292,8 +4315,8 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="58"/>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="87"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -4339,8 +4362,8 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="58"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -4374,8 +4397,8 @@
       <c r="Z7" s="44"/>
       <c r="AA7" s="58"/>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -4407,8 +4430,8 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="58"/>
     </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="87"/>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4463,8 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="58"/>
     </row>
-    <row r="10" spans="1:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
+    <row r="10" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -4457,7 +4480,9 @@
       <c r="J10" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="70" t="s">
+        <v>127</v>
+      </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
@@ -4483,8 +4508,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -4526,8 +4551,8 @@
       <c r="Z11" s="76"/>
       <c r="AA11" s="77"/>
     </row>
-    <row r="12" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="88"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -4563,8 +4588,8 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="12"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="88"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -4600,8 +4625,8 @@
       <c r="Z13" s="44"/>
       <c r="AA13" s="58"/>
     </row>
-    <row r="14" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -4635,8 +4660,8 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="12"/>
     </row>
-    <row r="15" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
+    <row r="15" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="88"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -4674,8 +4699,8 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:27" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
+    <row r="16" spans="1:27" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -4711,8 +4736,8 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -4752,8 +4777,8 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -4791,40 +4816,40 @@
       <c r="Z18" s="50"/>
       <c r="AA18" s="78"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G27" s="63"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G28" s="63"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G29" s="63"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G30" s="63"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G31" s="63"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G32" s="63"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="63"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="63"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="63"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="63"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="63"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="63"/>
     </row>
   </sheetData>
@@ -4844,25 +4869,25 @@
       <selection activeCell="K1" activeCellId="3" sqref="C1:C1048576 E1:F1048576 H1:I1048576 K1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="21.5546875" customWidth="1"/>
+    <col min="2" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -4945,8 +4970,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -4982,8 +5007,8 @@
       <c r="Z3" s="48"/>
       <c r="AA3" s="57"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -5017,8 +5042,8 @@
       <c r="Z4" s="44"/>
       <c r="AA4" s="58"/>
     </row>
-    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -5048,8 +5073,8 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="58"/>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="87"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -5097,8 +5122,8 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="58"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -5132,8 +5157,8 @@
       <c r="Z7" s="44"/>
       <c r="AA7" s="58"/>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -5165,8 +5190,8 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="58"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="88"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -5198,8 +5223,8 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="58"/>
     </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -5241,8 +5266,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:27" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -5284,8 +5309,8 @@
       <c r="Z11" s="76"/>
       <c r="AA11" s="77"/>
     </row>
-    <row r="12" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
+    <row r="12" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="88"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -5321,8 +5346,8 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="12"/>
     </row>
-    <row r="13" spans="1:27" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+    <row r="13" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="88"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -5358,8 +5383,8 @@
       <c r="Z13" s="44"/>
       <c r="AA13" s="58"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -5393,8 +5418,8 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="12"/>
     </row>
-    <row r="15" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
+    <row r="15" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="88"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -5432,8 +5457,8 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -5469,8 +5494,8 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+    <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -5510,8 +5535,8 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="1:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -5563,27 +5588,27 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:T13"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="2" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:27" ht="148.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:27" ht="148.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -5666,8 +5691,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -5703,8 +5728,8 @@
       <c r="Z3" s="48"/>
       <c r="AA3" s="57"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -5738,8 +5763,8 @@
       <c r="Z4" s="44"/>
       <c r="AA4" s="58"/>
     </row>
-    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -5769,8 +5794,8 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="58"/>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="87"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -5816,8 +5841,8 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="58"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -5851,8 +5876,8 @@
       <c r="Z7" s="44"/>
       <c r="AA7" s="58"/>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="87"/>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -5884,8 +5909,8 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="58"/>
     </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="87"/>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -5917,8 +5942,8 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="58"/>
     </row>
-    <row r="10" spans="1:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
+    <row r="10" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -5934,7 +5959,9 @@
       <c r="J10" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="53" t="s">
+        <v>43</v>
+      </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
@@ -5960,8 +5987,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6003,8 +6030,8 @@
       <c r="Z11" s="76"/>
       <c r="AA11" s="77"/>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="87"/>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="88"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -6040,8 +6067,8 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="12"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="88"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -6077,8 +6104,8 @@
       <c r="Z13" s="44"/>
       <c r="AA13" s="58"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -6114,8 +6141,8 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="12"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="88"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -6153,8 +6180,8 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -6190,8 +6217,8 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -6231,8 +6258,8 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>

--- a/scripts/prediction_files/config_predictions_tools.xlsx
+++ b/scripts/prediction_files/config_predictions_tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IRB\scripts\prediction_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BE7E2-C92B-43EB-84E6-1581BCF107CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DFEA10-9675-4D96-95CA-F92846F33D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
   </bookViews>
   <sheets>
     <sheet name="tools_configuration" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="204">
   <si>
     <t>CAS</t>
   </si>
@@ -677,6 +677,15 @@
   </si>
   <si>
     <t>\t</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>HH_carcino</t>
   </si>
 </sst>
 </file>
@@ -776,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1085,13 +1094,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1306,6 +1326,18 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1315,18 +1347,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,6 +1358,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1684,66 +1708,66 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="80" t="s">
+      <c r="O1" s="85"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="80" t="s">
+      <c r="R1" s="85"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="81"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="80" t="s">
+      <c r="U1" s="85"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="80" t="s">
+      <c r="X1" s="85"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="80" t="s">
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="80" t="s">
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="82"/>
-      <c r="AL1" s="83" t="s">
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="86"/>
+      <c r="AL1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="85" t="s">
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="85" t="s">
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="85" t="s">
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="85" t="s">
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="86"/>
+      <c r="AU1" s="83"/>
       <c r="AY1" s="21" t="s">
         <v>2</v>
       </c>
@@ -2922,11 +2946,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="Q1:S1"/>
@@ -2935,6 +2954,11 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3481,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F9EED-15F0-4EE3-A4D1-3DD0052DFC42}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,10 +4087,10 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="89"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="69"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
@@ -4092,10 +4116,50 @@
       <c r="Z18" s="50"/>
       <c r="AA18" s="78"/>
     </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="88"/>
+      <c r="B20" s="46"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="88"/>
+      <c r="B21" s="46"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
+      <c r="B22" s="46"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="88"/>
+      <c r="B23" s="46"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="88"/>
+      <c r="B24" s="46"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="88"/>
+      <c r="B25" s="46"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="89"/>
+      <c r="B26" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4105,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41DF9A8-662C-4CBC-A161-D0AE9B40A0E2}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,8 +4544,8 @@
       <c r="J10" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="70" t="s">
-        <v>127</v>
+      <c r="K10" s="79" t="s">
+        <v>201</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
@@ -4816,6 +4880,17 @@
       <c r="Z18" s="50"/>
       <c r="AA18" s="78"/>
     </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G27" s="63"/>
     </row>
@@ -4865,7 +4940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAC509A-C99C-4B9B-A9E9-5F08082C9CF5}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K1" activeCellId="3" sqref="C1:C1048576 E1:F1048576 H1:I1048576 K1:P1048576"/>
     </sheetView>
   </sheetViews>
@@ -5585,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C77020-4E63-4DDC-B3D1-676E9222D738}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5959,9 +6034,7 @@
       <c r="J10" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="53" t="s">
-        <v>43</v>
-      </c>
+      <c r="K10" s="53"/>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
@@ -6297,6 +6370,17 @@
       <c r="Z18" s="50"/>
       <c r="AA18" s="78"/>
     </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A10"/>

--- a/scripts/prediction_files/config_predictions_tools.xlsx
+++ b/scripts/prediction_files/config_predictions_tools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IRB\scripts\prediction_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DFEA10-9675-4D96-95CA-F92846F33D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03641070-B664-4CE3-A12B-34AAB2E6E945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
+    <workbookView xWindow="-22236" yWindow="816" windowWidth="21600" windowHeight="11232" firstSheet="1" activeTab="4" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
   </bookViews>
   <sheets>
     <sheet name="tools_configuration" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="206">
   <si>
     <t>CAS</t>
   </si>
@@ -686,6 +686,12 @@
   </si>
   <si>
     <t>HH_carcino</t>
+  </si>
+  <si>
+    <t>EXPERIMENTAL_tool</t>
+  </si>
+  <si>
+    <t>EXPERIMENTAL</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1117,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1326,6 +1332,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1358,10 +1365,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1679,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264E4B08-2505-4D3B-A222-9F6E1A1FC114}">
-  <dimension ref="A1:AZ28"/>
+  <dimension ref="A1:AZ29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1708,66 +1711,66 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="84" t="s">
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="84" t="s">
+      <c r="O1" s="86"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="85"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="84" t="s">
+      <c r="R1" s="86"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="84" t="s">
+      <c r="U1" s="86"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="84" t="s">
+      <c r="X1" s="86"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="84" t="s">
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="84" t="s">
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86"/>
-      <c r="AL1" s="80" t="s">
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="87"/>
+      <c r="AL1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="82" t="s">
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="82" t="s">
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="82" t="s">
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="82" t="s">
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="83"/>
+      <c r="AU1" s="84"/>
       <c r="AY1" s="21" t="s">
         <v>2</v>
       </c>
@@ -2943,6 +2946,23 @@
         <v>27</v>
       </c>
       <c r="I28"/>
+    </row>
+    <row r="29" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3033,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0F83C6-9DA1-4D28-BE0D-BA520F4CC89D}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,8 +3076,8 @@
     <col min="19" max="19" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -3115,9 +3135,12 @@
       <c r="S2" s="53" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="T2" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -3140,9 +3163,10 @@
       <c r="Q3" s="48"/>
       <c r="R3" s="48"/>
       <c r="S3" s="57"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="T3" s="57"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -3163,9 +3187,10 @@
       <c r="Q4" s="44"/>
       <c r="R4" s="44"/>
       <c r="S4" s="58"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="T4" s="58"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="89"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -3186,9 +3211,10 @@
       <c r="Q5" s="44"/>
       <c r="R5" s="44"/>
       <c r="S5" s="58"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -3209,9 +3235,10 @@
       <c r="Q6" s="44"/>
       <c r="R6" s="44"/>
       <c r="S6" s="58"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
+      <c r="T6" s="58"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="89"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -3232,9 +3259,10 @@
       <c r="Q7" s="44"/>
       <c r="R7" s="44"/>
       <c r="S7" s="58"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="T7" s="58"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -3255,9 +3283,10 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="58"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="T8" s="58"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="89"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -3278,9 +3307,10 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
       <c r="S9" s="58"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="T9" s="58"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -3301,9 +3331,10 @@
       <c r="Q10" s="69"/>
       <c r="R10" s="69"/>
       <c r="S10" s="71"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="T10" s="71"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="91" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="65" t="s">
@@ -3326,9 +3357,10 @@
       <c r="Q11" s="67"/>
       <c r="R11" s="67"/>
       <c r="S11" s="67"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
+      <c r="T11" s="77"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="89"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -3349,9 +3381,10 @@
       <c r="Q12" s="60"/>
       <c r="R12" s="60"/>
       <c r="S12" s="60"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="89"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -3374,9 +3407,10 @@
         <v>49</v>
       </c>
       <c r="S13" s="44"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="T13" s="58"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -3397,9 +3431,10 @@
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
       <c r="S14" s="60"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -3420,9 +3455,10 @@
       <c r="Q15" s="60"/>
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -3443,9 +3479,10 @@
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
       <c r="S16" s="60"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -3466,9 +3503,10 @@
       <c r="Q17" s="60"/>
       <c r="R17" s="60"/>
       <c r="S17" s="60"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -3489,8 +3527,14 @@
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
       <c r="S18" s="60"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="78"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="62"/>
     </row>
   </sheetData>
@@ -3505,10 +3549,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F9EED-15F0-4EE3-A4D1-3DD0052DFC42}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,8 +3572,8 @@
     <col min="25" max="25" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:27" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:28" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -3611,9 +3655,12 @@
       <c r="AA2" s="53" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="AB2" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -3644,9 +3691,10 @@
       <c r="Y3" s="48"/>
       <c r="Z3" s="48"/>
       <c r="AA3" s="57"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="AB3" s="57"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="89"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -3675,9 +3723,10 @@
       <c r="Y4" s="44"/>
       <c r="Z4" s="44"/>
       <c r="AA4" s="58"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="AB4" s="58"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="89"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -3706,9 +3755,10 @@
       <c r="Y5" s="44"/>
       <c r="Z5" s="44"/>
       <c r="AA5" s="58"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="AB5" s="58"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -3737,9 +3787,10 @@
       <c r="Y6" s="44"/>
       <c r="Z6" s="44"/>
       <c r="AA6" s="58"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
+      <c r="AB6" s="58"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -3768,9 +3819,10 @@
       <c r="Y7" s="44"/>
       <c r="Z7" s="44"/>
       <c r="AA7" s="58"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="AB7" s="58"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -3799,9 +3851,10 @@
       <c r="Y8" s="44"/>
       <c r="Z8" s="44"/>
       <c r="AA8" s="58"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="AB8" s="58"/>
+    </row>
+    <row r="9" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="89"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -3830,9 +3883,10 @@
       <c r="Y9" s="44"/>
       <c r="Z9" s="44"/>
       <c r="AA9" s="58"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="AB9" s="58"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -3865,9 +3919,10 @@
       <c r="Y10" s="69"/>
       <c r="Z10" s="69"/>
       <c r="AA10" s="71"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="AB10" s="71"/>
+    </row>
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -3898,9 +3953,10 @@
       <c r="Y11" s="76"/>
       <c r="Z11" s="76"/>
       <c r="AA11" s="77"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
+      <c r="AB11" s="77"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="89"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -3929,9 +3985,10 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="12"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -3960,9 +4017,10 @@
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="58"/>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="AB13" s="58"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -3991,9 +4049,10 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -4022,9 +4081,10 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -4053,9 +4113,10 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
+      <c r="AB16" s="12"/>
+    </row>
+    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -4084,13 +4145,14 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="92" t="s">
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="69"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
@@ -4115,9 +4177,10 @@
       <c r="Y18" s="50"/>
       <c r="Z18" s="50"/>
       <c r="AA18" s="78"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="87" t="s">
+      <c r="AB18" s="78"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="88" t="s">
         <v>202</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -4126,33 +4189,36 @@
       <c r="K19" s="53" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
+      <c r="AB19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="89"/>
       <c r="B20" s="46"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="89"/>
       <c r="B21" s="46"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="89"/>
       <c r="B22" s="46"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="89"/>
       <c r="B23" s="46"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
       <c r="B24" s="46"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
       <c r="B25" s="46"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
+    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
       <c r="B26" s="46"/>
     </row>
   </sheetData>
@@ -4167,10 +4233,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41DF9A8-662C-4CBC-A161-D0AE9B40A0E2}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4192,8 +4258,8 @@
     <col min="23" max="23" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -4275,9 +4341,12 @@
       <c r="AA2" s="53" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="AB2" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -4312,9 +4381,10 @@
       <c r="Y3" s="48"/>
       <c r="Z3" s="48"/>
       <c r="AA3" s="57"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="AB3" s="57"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -4347,9 +4417,10 @@
       <c r="Y4" s="44"/>
       <c r="Z4" s="44"/>
       <c r="AA4" s="58"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="AB4" s="58"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="89"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -4378,9 +4449,10 @@
       <c r="Y5" s="44"/>
       <c r="Z5" s="44"/>
       <c r="AA5" s="58"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="AB5" s="58"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="89"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -4425,9 +4497,10 @@
       <c r="Y6" s="44"/>
       <c r="Z6" s="44"/>
       <c r="AA6" s="58"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
+      <c r="AB6" s="58"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="89"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -4460,9 +4533,10 @@
       <c r="Y7" s="44"/>
       <c r="Z7" s="44"/>
       <c r="AA7" s="58"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="AB7" s="58"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -4493,9 +4567,10 @@
       <c r="Y8" s="44"/>
       <c r="Z8" s="44"/>
       <c r="AA8" s="58"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="AB8" s="58"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="89"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -4526,9 +4601,10 @@
       <c r="Y9" s="44"/>
       <c r="Z9" s="44"/>
       <c r="AA9" s="58"/>
-    </row>
-    <row r="10" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="AB9" s="58"/>
+    </row>
+    <row r="10" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -4571,9 +4647,10 @@
       <c r="AA10" s="71" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="AB10" s="71"/>
+    </row>
+    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -4614,9 +4691,10 @@
       <c r="Y11" s="76"/>
       <c r="Z11" s="76"/>
       <c r="AA11" s="77"/>
-    </row>
-    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
+      <c r="AB11" s="77"/>
+    </row>
+    <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="89"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -4651,9 +4729,10 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="12"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="89"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -4688,9 +4767,10 @@
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="58"/>
-    </row>
-    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="AB13" s="58"/>
+    </row>
+    <row r="14" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -4723,9 +4803,10 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -4762,9 +4843,10 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="1:27" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -4799,9 +4881,10 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
+      <c r="AB16" s="12"/>
+    </row>
+    <row r="17" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -4840,9 +4923,10 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -4879,34 +4963,38 @@
       <c r="Y18" s="50"/>
       <c r="Z18" s="50"/>
       <c r="AA18" s="78"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="78"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="80" t="s">
         <v>203</v>
       </c>
       <c r="K19" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G27" s="63"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G28" s="63"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G29" s="63"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G30" s="63"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G31" s="63"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G32" s="63"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
@@ -4940,7 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAC509A-C99C-4B9B-A9E9-5F08082C9CF5}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K1" activeCellId="3" sqref="C1:C1048576 E1:F1048576 H1:I1048576 K1:P1048576"/>
     </sheetView>
   </sheetViews>
@@ -5046,7 +5134,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -5083,7 +5171,7 @@
       <c r="AA3" s="57"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -5118,7 +5206,7 @@
       <c r="AA4" s="58"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -5149,7 +5237,7 @@
       <c r="AA5" s="58"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -5198,7 +5286,7 @@
       <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -5233,7 +5321,7 @@
       <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -5266,7 +5354,7 @@
       <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -5299,7 +5387,7 @@
       <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -5342,7 +5430,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="88" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -5385,7 +5473,7 @@
       <c r="AA11" s="77"/>
     </row>
     <row r="12" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -5422,7 +5510,7 @@
       <c r="AA12" s="12"/>
     </row>
     <row r="13" spans="1:27" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -5459,7 +5547,7 @@
       <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -5494,7 +5582,7 @@
       <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -5533,7 +5621,7 @@
       <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -5570,7 +5658,7 @@
       <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -5611,7 +5699,7 @@
       <c r="AA17" s="12"/>
     </row>
     <row r="18" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -5767,7 +5855,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -5804,7 +5892,7 @@
       <c r="AA3" s="57"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -5839,7 +5927,7 @@
       <c r="AA4" s="58"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -5870,7 +5958,7 @@
       <c r="AA5" s="58"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -5917,7 +6005,7 @@
       <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -5952,7 +6040,7 @@
       <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -5985,7 +6073,7 @@
       <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -6018,7 +6106,7 @@
       <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -6061,7 +6149,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="88" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6104,7 +6192,7 @@
       <c r="AA11" s="77"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -6141,7 +6229,7 @@
       <c r="AA12" s="12"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -6178,7 +6266,7 @@
       <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -6215,7 +6303,7 @@
       <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -6254,7 +6342,7 @@
       <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -6291,7 +6379,7 @@
       <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -6332,7 +6420,7 @@
       <c r="AA17" s="12"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -6374,7 +6462,7 @@
       <c r="A19" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="80" t="s">
         <v>203</v>
       </c>
       <c r="K19" t="s">

--- a/scripts/prediction_files/config_predictions_tools.xlsx
+++ b/scripts/prediction_files/config_predictions_tools.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IRB\scripts\prediction_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03641070-B664-4CE3-A12B-34AAB2E6E945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D9E0D-5C16-40F1-9ED6-C9F20B4D3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22236" yWindow="816" windowWidth="21600" windowHeight="11232" firstSheet="1" activeTab="4" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
   </bookViews>
   <sheets>
     <sheet name="tools_configuration" sheetId="2" r:id="rId1"/>
     <sheet name="help" sheetId="5" r:id="rId2"/>
-    <sheet name="properties_to_prepare" sheetId="6" r:id="rId3"/>
-    <sheet name="properties_to_proccess" sheetId="8" r:id="rId4"/>
+    <sheet name="properties_to_proccess" sheetId="8" r:id="rId3"/>
+    <sheet name="properties_to_prepare" sheetId="6" r:id="rId4"/>
     <sheet name="properties_by_tools_equivalence" sheetId="9" r:id="rId5"/>
     <sheet name="properties_by_tools_units" sheetId="10" r:id="rId6"/>
     <sheet name="properties_by_tools_all" sheetId="7" r:id="rId7"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="210">
   <si>
     <t>CAS</t>
   </si>
@@ -692,6 +690,18 @@
   </si>
   <si>
     <t>EXPERIMENTAL</t>
+  </si>
+  <si>
+    <t>ECO_AF</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>ECO_CF</t>
+  </si>
+  <si>
+    <t>AF</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1127,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1333,6 +1343,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1386,9 +1397,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1426,7 +1437,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1532,7 +1543,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1674,7 +1685,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1684,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264E4B08-2505-4D3B-A222-9F6E1A1FC114}">
   <dimension ref="A1:AZ29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1711,66 +1722,66 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="85" t="s">
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="85" t="s">
+      <c r="O1" s="87"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="86"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="85" t="s">
+      <c r="R1" s="87"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="86"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="85" t="s">
+      <c r="U1" s="87"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="85" t="s">
+      <c r="X1" s="87"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="85" t="s">
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="85" t="s">
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="87"/>
-      <c r="AL1" s="81" t="s">
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="88"/>
+      <c r="AL1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="83" t="s">
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="83" t="s">
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="83" t="s">
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="83" t="s">
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="84"/>
+      <c r="AU1" s="85"/>
       <c r="AY1" s="21" t="s">
         <v>2</v>
       </c>
@@ -3052,507 +3063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0F83C6-9DA1-4D28-BE0D-BA520F4CC89D}">
-  <dimension ref="A1:T31"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
-      <c r="B5" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="77"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
-      <c r="B13" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="S13" s="44"/>
-      <c r="T13" s="58"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="78"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F31" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050F9EED-15F0-4EE3-A4D1-3DD0052DFC42}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,7 +3175,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -3694,7 +3209,7 @@
       <c r="AB3" s="57"/>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -3726,7 +3241,7 @@
       <c r="AB4" s="58"/>
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -3758,7 +3273,7 @@
       <c r="AB5" s="58"/>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -3790,7 +3305,7 @@
       <c r="AB6" s="58"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -3822,7 +3337,7 @@
       <c r="AB7" s="58"/>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -3854,7 +3369,7 @@
       <c r="AB8" s="58"/>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -3886,7 +3401,7 @@
       <c r="AB9" s="58"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -3922,7 +3437,7 @@
       <c r="AB10" s="71"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -3956,7 +3471,7 @@
       <c r="AB11" s="77"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -3988,7 +3503,7 @@
       <c r="AB12" s="12"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -4020,7 +3535,7 @@
       <c r="AB13" s="58"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -4052,7 +3567,7 @@
       <c r="AB14" s="12"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -4084,7 +3599,7 @@
       <c r="AB15" s="12"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -4116,7 +3631,7 @@
       <c r="AB16" s="12"/>
     </row>
     <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -4148,7 +3663,7 @@
       <c r="AB17" s="12"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="50" t="s">
         <v>84</v>
       </c>
@@ -4180,7 +3695,7 @@
       <c r="AB18" s="78"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="89" t="s">
         <v>202</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -4194,31 +3709,34 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="46"/>
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="46"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="46"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="46"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="46"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="46"/>
     </row>
   </sheetData>
@@ -4231,12 +3749,536 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0F83C6-9DA1-4D28-BE0D-BA520F4CC89D}">
+  <dimension ref="A1:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="90"/>
+      <c r="B5" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="90"/>
+      <c r="B6" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="90"/>
+      <c r="B7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90"/>
+      <c r="B8" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90"/>
+      <c r="B9" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91"/>
+      <c r="B10" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="77"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="90"/>
+      <c r="B12" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="90"/>
+      <c r="B13" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="44"/>
+      <c r="T13" s="58"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="90"/>
+      <c r="B14" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="90"/>
+      <c r="B15" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="90"/>
+      <c r="B16" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="90"/>
+      <c r="B17" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="91"/>
+      <c r="B18" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="78"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="81" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F31" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41DF9A8-662C-4CBC-A161-D0AE9B40A0E2}">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4346,7 +4388,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -4384,7 +4426,7 @@
       <c r="AB3" s="57"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -4420,7 +4462,7 @@
       <c r="AB4" s="58"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -4452,7 +4494,7 @@
       <c r="AB5" s="58"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -4500,7 +4542,7 @@
       <c r="AB6" s="58"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -4536,7 +4578,7 @@
       <c r="AB7" s="58"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -4570,7 +4612,7 @@
       <c r="AB8" s="58"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -4604,7 +4646,7 @@
       <c r="AB9" s="58"/>
     </row>
     <row r="10" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -4650,7 +4692,7 @@
       <c r="AB10" s="71"/>
     </row>
     <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -4694,7 +4736,7 @@
       <c r="AB11" s="77"/>
     </row>
     <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -4732,7 +4774,7 @@
       <c r="AB12" s="12"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -4770,7 +4812,7 @@
       <c r="AB13" s="58"/>
     </row>
     <row r="14" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -4806,7 +4848,7 @@
       <c r="AB14" s="12"/>
     </row>
     <row r="15" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -4846,7 +4888,7 @@
       <c r="AB15" s="12"/>
     </row>
     <row r="16" spans="1:28" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -4884,7 +4926,7 @@
       <c r="AB16" s="12"/>
     </row>
     <row r="17" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -4926,7 +4968,7 @@
       <c r="AB17" s="12"/>
     </row>
     <row r="18" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -4980,7 +5022,16 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>206</v>
+      </c>
       <c r="G27" s="63"/>
+      <c r="O27" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G28" s="63"/>
@@ -5021,6 +5072,7 @@
     <mergeCell ref="A11:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5134,7 +5186,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -5171,7 +5223,7 @@
       <c r="AA3" s="57"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -5206,7 +5258,7 @@
       <c r="AA4" s="58"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -5237,7 +5289,7 @@
       <c r="AA5" s="58"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -5286,7 +5338,7 @@
       <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -5321,7 +5373,7 @@
       <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -5354,7 +5406,7 @@
       <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -5387,7 +5439,7 @@
       <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -5430,7 +5482,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -5473,7 +5525,7 @@
       <c r="AA11" s="77"/>
     </row>
     <row r="12" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -5510,7 +5562,7 @@
       <c r="AA12" s="12"/>
     </row>
     <row r="13" spans="1:27" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -5547,7 +5599,7 @@
       <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -5582,7 +5634,7 @@
       <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -5621,7 +5673,7 @@
       <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -5658,7 +5710,7 @@
       <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -5699,7 +5751,7 @@
       <c r="AA17" s="12"/>
     </row>
     <row r="18" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>
@@ -5855,7 +5907,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -5892,7 +5944,7 @@
       <c r="AA3" s="57"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
       </c>
@@ -5927,7 +5979,7 @@
       <c r="AA4" s="58"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
       </c>
@@ -5958,7 +6010,7 @@
       <c r="AA5" s="58"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
@@ -6005,7 +6057,7 @@
       <c r="AA6" s="58"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
       </c>
@@ -6040,7 +6092,7 @@
       <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
       </c>
@@ -6073,7 +6125,7 @@
       <c r="AA8" s="58"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
       </c>
@@ -6106,7 +6158,7 @@
       <c r="AA9" s="58"/>
     </row>
     <row r="10" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
@@ -6149,7 +6201,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -6192,7 +6244,7 @@
       <c r="AA11" s="77"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
       </c>
@@ -6229,7 +6281,7 @@
       <c r="AA12" s="12"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
@@ -6266,7 +6318,7 @@
       <c r="AA13" s="58"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
       </c>
@@ -6303,7 +6355,7 @@
       <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
       </c>
@@ -6342,7 +6394,7 @@
       <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
@@ -6379,7 +6431,7 @@
       <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
@@ -6420,7 +6472,7 @@
       <c r="AA17" s="12"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
       </c>

--- a/scripts/prediction_files/config_predictions_tools.xlsx
+++ b/scripts/prediction_files/config_predictions_tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IRB\scripts\prediction_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D9E0D-5C16-40F1-9ED6-C9F20B4D3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6690923B-F6F2-40DB-99BF-EA0639918D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="571" xr2:uid="{7606FAE2-3BC8-44FB-90E7-845E574CC87B}"/>
   </bookViews>
   <sheets>
     <sheet name="tools_configuration" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="210">
   <si>
     <t>CAS</t>
   </si>
@@ -1344,6 +1344,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1355,15 +1364,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1695,99 +1695,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264E4B08-2505-4D3B-A222-9F6E1A1FC114}">
   <dimension ref="A1:AZ29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="24" style="20"/>
-    <col min="6" max="8" width="11.85546875" style="20" customWidth="1"/>
-    <col min="9" max="10" width="32.42578125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="20" customWidth="1"/>
+    <col min="6" max="8" width="11.88671875" style="20" customWidth="1"/>
+    <col min="9" max="10" width="32.44140625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="20" customWidth="1"/>
     <col min="13" max="26" width="11" style="20" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="20" customWidth="1"/>
-    <col min="28" max="28" width="20.85546875" style="20" customWidth="1"/>
+    <col min="27" max="27" width="18.5546875" style="20" customWidth="1"/>
+    <col min="28" max="28" width="20.88671875" style="20" customWidth="1"/>
     <col min="29" max="34" width="11" style="20" customWidth="1"/>
     <col min="35" max="35" width="24" style="20"/>
-    <col min="36" max="36" width="14.85546875" style="20" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="20" customWidth="1"/>
-    <col min="38" max="47" width="10.5703125" style="20" customWidth="1"/>
+    <col min="36" max="36" width="14.88671875" style="20" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="20" customWidth="1"/>
+    <col min="38" max="47" width="10.5546875" style="20" customWidth="1"/>
     <col min="48" max="16384" width="24" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="86" t="s">
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="86" t="s">
+      <c r="O1" s="83"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="87"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="86" t="s">
+      <c r="R1" s="83"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="87"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="86" t="s">
+      <c r="U1" s="83"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="86" t="s">
+      <c r="X1" s="83"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="86" t="s">
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="86" t="s">
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="88"/>
-      <c r="AL1" s="82" t="s">
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="84"/>
+      <c r="AL1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="84" t="s">
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="84" t="s">
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="84" t="s">
+      <c r="AQ1" s="88"/>
+      <c r="AR1" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="84" t="s">
+      <c r="AS1" s="88"/>
+      <c r="AT1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="85"/>
+      <c r="AU1" s="88"/>
       <c r="AY1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="AZ1" s="22"/>
     </row>
-    <row r="2" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="AH5" s="12"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>13</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="AH8" s="12"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="AH9" s="12"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="AH11" s="12"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="AH12" s="12"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="AH14" s="12"/>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="AH15" s="12"/>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="AH16" s="12"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>31</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
     </row>
-    <row r="18" spans="1:36" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>87</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>185</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>186</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>187</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>188</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>190</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>189</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>191</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>192</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>193</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>194</v>
       </c>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>205</v>
       </c>
@@ -2977,6 +2977,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="Q1:S1"/>
@@ -2985,11 +2990,6 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3003,12 +3003,12 @@
       <selection activeCell="B15" sqref="B15:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>181</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>182</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>183</v>
       </c>
@@ -3032,22 +3032,22 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>CONCATENATE(B15,";",B16,";",B17,";",B18,";",B19,";",B20)</f>
         <v>iLOGP;XLOGP3;WLOGP;MLOGP;Silicos-IT Log P;Consensus Log P</v>
@@ -3067,28 +3067,28 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="2" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:28" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:28" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="89" t="s">
         <v>63</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="AA3" s="57"/>
       <c r="AB3" s="57"/>
     </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
@@ -3240,7 +3240,7 @@
       <c r="AA4" s="58"/>
       <c r="AB4" s="58"/>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
@@ -3272,7 +3272,7 @@
       <c r="AA5" s="58"/>
       <c r="AB5" s="58"/>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
@@ -3304,7 +3304,7 @@
       <c r="AA6" s="58"/>
       <c r="AB6" s="58"/>
     </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
@@ -3336,7 +3336,7 @@
       <c r="AA7" s="58"/>
       <c r="AB7" s="58"/>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
@@ -3368,7 +3368,7 @@
       <c r="AA8" s="58"/>
       <c r="AB8" s="58"/>
     </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
@@ -3400,7 +3400,7 @@
       <c r="AA9" s="58"/>
       <c r="AB9" s="58"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
@@ -3436,7 +3436,7 @@
       <c r="AA10" s="71"/>
       <c r="AB10" s="71"/>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
         <v>64</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="AA11" s="77"/>
       <c r="AB11" s="77"/>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="90"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
@@ -3502,7 +3502,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
@@ -3534,7 +3534,7 @@
       <c r="AA13" s="58"/>
       <c r="AB13" s="58"/>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
@@ -3566,7 +3566,7 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="90"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
@@ -3598,7 +3598,7 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
@@ -3630,7 +3630,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
     </row>
-    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
@@ -3662,7 +3662,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="91"/>
       <c r="B18" s="50" t="s">
         <v>84</v>
@@ -3694,7 +3694,7 @@
       <c r="AA18" s="78"/>
       <c r="AB18" s="78"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="89" t="s">
         <v>202</v>
       </c>
@@ -3704,38 +3704,35 @@
       <c r="K19" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="AB19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="46"/>
       <c r="O20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="90"/>
       <c r="B21" s="46"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="90"/>
       <c r="B22" s="46"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
       <c r="B23" s="46"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
       <c r="B24" s="46"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="90"/>
       <c r="B25" s="46"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="91"/>
       <c r="B26" s="46"/>
     </row>
@@ -3753,29 +3750,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0F83C6-9DA1-4D28-BE0D-BA520F4CC89D}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="2" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -3837,7 +3834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="89" t="s">
         <v>63</v>
       </c>
@@ -3863,7 +3860,7 @@
       <c r="S3" s="57"/>
       <c r="T3" s="57"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
@@ -3887,7 +3884,7 @@
       <c r="S4" s="58"/>
       <c r="T4" s="58"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
@@ -3911,7 +3908,7 @@
       <c r="S5" s="58"/>
       <c r="T5" s="58"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
@@ -3935,7 +3932,7 @@
       <c r="S6" s="58"/>
       <c r="T6" s="58"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
@@ -3959,7 +3956,7 @@
       <c r="S7" s="58"/>
       <c r="T7" s="58"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
@@ -3983,7 +3980,7 @@
       <c r="S8" s="58"/>
       <c r="T8" s="58"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
@@ -4007,7 +4004,7 @@
       <c r="S9" s="58"/>
       <c r="T9" s="58"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
@@ -4031,7 +4028,7 @@
       <c r="S10" s="71"/>
       <c r="T10" s="71"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="92" t="s">
         <v>64</v>
       </c>
@@ -4057,7 +4054,7 @@
       <c r="S11" s="67"/>
       <c r="T11" s="77"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="90"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
@@ -4081,7 +4078,7 @@
       <c r="S12" s="60"/>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="90"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
@@ -4107,7 +4104,7 @@
       <c r="S13" s="44"/>
       <c r="T13" s="58"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
@@ -4131,7 +4128,7 @@
       <c r="S14" s="60"/>
       <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="90"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
@@ -4155,7 +4152,7 @@
       <c r="S15" s="60"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
@@ -4179,7 +4176,7 @@
       <c r="S16" s="60"/>
       <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
@@ -4203,7 +4200,7 @@
       <c r="S17" s="60"/>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="91"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
@@ -4227,7 +4224,7 @@
       <c r="S18" s="60"/>
       <c r="T18" s="78"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>202</v>
       </c>
@@ -4237,11 +4234,8 @@
       <c r="K19" t="s">
         <v>43</v>
       </c>
-      <c r="T19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -4251,16 +4245,13 @@
       <c r="O24" t="s">
         <v>50</v>
       </c>
-      <c r="T24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25" s="81" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F31" s="62"/>
     </row>
   </sheetData>
@@ -4278,30 +4269,30 @@
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" customWidth="1"/>
-    <col min="23" max="23" width="31.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" customWidth="1"/>
+    <col min="19" max="19" width="24.44140625" customWidth="1"/>
+    <col min="23" max="23" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:28" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -4387,7 +4378,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="89" t="s">
         <v>63</v>
       </c>
@@ -4425,7 +4416,7 @@
       <c r="AA3" s="57"/>
       <c r="AB3" s="57"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
@@ -4461,7 +4452,7 @@
       <c r="AA4" s="58"/>
       <c r="AB4" s="58"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
@@ -4493,7 +4484,7 @@
       <c r="AA5" s="58"/>
       <c r="AB5" s="58"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
@@ -4541,7 +4532,7 @@
       <c r="AA6" s="58"/>
       <c r="AB6" s="58"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
@@ -4577,7 +4568,7 @@
       <c r="AA7" s="58"/>
       <c r="AB7" s="58"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
@@ -4611,7 +4602,7 @@
       <c r="AA8" s="58"/>
       <c r="AB8" s="58"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
@@ -4645,7 +4636,7 @@
       <c r="AA9" s="58"/>
       <c r="AB9" s="58"/>
     </row>
-    <row r="10" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
@@ -4691,7 +4682,7 @@
       </c>
       <c r="AB10" s="71"/>
     </row>
-    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
         <v>64</v>
       </c>
@@ -4735,7 +4726,7 @@
       <c r="AA11" s="77"/>
       <c r="AB11" s="77"/>
     </row>
-    <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="90"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
@@ -4773,7 +4764,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
@@ -4811,7 +4802,7 @@
       <c r="AA13" s="58"/>
       <c r="AB13" s="58"/>
     </row>
-    <row r="14" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
@@ -4847,7 +4838,7 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
     </row>
-    <row r="15" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="90"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
@@ -4887,7 +4878,7 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
@@ -4925,7 +4916,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
     </row>
-    <row r="17" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
@@ -4967,7 +4958,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="91"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
@@ -5007,7 +4998,7 @@
       <c r="AA18" s="78"/>
       <c r="AB18" s="78"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>202</v>
       </c>
@@ -5017,11 +5008,8 @@
       <c r="K19" t="s">
         <v>201</v>
       </c>
-      <c r="AB19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>207</v>
       </c>
@@ -5033,37 +5021,37 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G28" s="63"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G29" s="63"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G30" s="63"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G31" s="63"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G32" s="63"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="63"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="63"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" s="63"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G36" s="63"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G37" s="63"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G38" s="63"/>
     </row>
   </sheetData>
@@ -5080,29 +5068,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAC509A-C99C-4B9B-A9E9-5F08082C9CF5}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H7" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K1" activeCellId="3" sqref="C1:C1048576 E1:F1048576 H1:I1048576 K1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="21.5703125" customWidth="1"/>
+    <col min="2" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -5185,7 +5173,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="89" t="s">
         <v>63</v>
       </c>
@@ -5222,7 +5210,7 @@
       <c r="Z3" s="48"/>
       <c r="AA3" s="57"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
@@ -5257,7 +5245,7 @@
       <c r="Z4" s="44"/>
       <c r="AA4" s="58"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
@@ -5288,7 +5276,7 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="58"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
@@ -5337,7 +5325,7 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="58"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
@@ -5372,7 +5360,7 @@
       <c r="Z7" s="44"/>
       <c r="AA7" s="58"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
@@ -5405,7 +5393,7 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="58"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
@@ -5438,7 +5426,7 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="58"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
@@ -5481,7 +5469,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
         <v>64</v>
       </c>
@@ -5524,7 +5512,7 @@
       <c r="Z11" s="76"/>
       <c r="AA11" s="77"/>
     </row>
-    <row r="12" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="90"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
@@ -5561,7 +5549,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="12"/>
     </row>
-    <row r="13" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
@@ -5598,7 +5586,7 @@
       <c r="Z13" s="44"/>
       <c r="AA13" s="58"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
@@ -5633,7 +5621,7 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="12"/>
     </row>
-    <row r="15" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="90"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
@@ -5672,7 +5660,7 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
@@ -5709,7 +5697,7 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
@@ -5750,7 +5738,7 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="91"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
@@ -5802,28 +5790,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C77020-4E63-4DDC-B3D1-676E9222D738}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="2" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:27" ht="148.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:27" ht="148.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
         <v>85</v>
       </c>
@@ -5906,7 +5894,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="89" t="s">
         <v>63</v>
       </c>
@@ -5943,7 +5931,7 @@
       <c r="Z3" s="48"/>
       <c r="AA3" s="57"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>70</v>
@@ -5978,7 +5966,7 @@
       <c r="Z4" s="44"/>
       <c r="AA4" s="58"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>71</v>
@@ -6009,7 +5997,7 @@
       <c r="Z5" s="44"/>
       <c r="AA5" s="58"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>72</v>
@@ -6056,7 +6044,7 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="58"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>73</v>
@@ -6091,7 +6079,7 @@
       <c r="Z7" s="44"/>
       <c r="AA7" s="58"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>74</v>
@@ -6124,7 +6112,7 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="58"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="90"/>
       <c r="B9" s="46" t="s">
         <v>75</v>
@@ -6157,7 +6145,7 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="58"/>
     </row>
-    <row r="10" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
       <c r="B10" s="49" t="s">
         <v>76</v>
@@ -6200,7 +6188,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
         <v>64</v>
       </c>
@@ -6243,7 +6231,7 @@
       <c r="Z11" s="76"/>
       <c r="AA11" s="77"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="90"/>
       <c r="B12" s="46" t="s">
         <v>78</v>
@@ -6280,7 +6268,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="12"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
       <c r="B13" s="46" t="s">
         <v>79</v>
@@ -6317,7 +6305,7 @@
       <c r="Z13" s="44"/>
       <c r="AA13" s="58"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
       <c r="B14" s="46" t="s">
         <v>80</v>
@@ -6354,7 +6342,7 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="12"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="90"/>
       <c r="B15" s="46" t="s">
         <v>81</v>
@@ -6393,7 +6381,7 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="46" t="s">
         <v>82</v>
@@ -6430,7 +6418,7 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
       <c r="B17" s="46" t="s">
         <v>83</v>
@@ -6471,7 +6459,7 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="91"/>
       <c r="B18" s="49" t="s">
         <v>84</v>
@@ -6510,7 +6498,7 @@
       <c r="Z18" s="50"/>
       <c r="AA18" s="78"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>202</v>
       </c>
